--- a/SuppXLS/Scen_CO2_PRICE_PROJ.xlsx
+++ b/SuppXLS/Scen_CO2_PRICE_PROJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\TIMES_IPOY\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/Demo model/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80289C0F-46AC-4387-B1B5-61BE0E450FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{80289C0F-46AC-4387-B1B5-61BE0E450FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC5EEA1A-BE8A-4F39-B93F-A51F5F3EA5D2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3264" windowWidth="34320" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2" sheetId="2" r:id="rId1"/>
@@ -58,6 +58,36 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>\I: Attribute</t>
+  </si>
+  <si>
+    <t>Commodity Set: Commodity Name</t>
+  </si>
+  <si>
+    <t>COM_TAXNET</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Emission Cost [MEUR/kt]</t>
+  </si>
+  <si>
+    <t>INTERPOLATION OPTION</t>
+  </si>
   <si>
     <r>
       <t>ETS CO</t>
@@ -90,41 +120,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> [MPLN/kt = PLN/kg]</t>
+      <t xml:space="preserve"> [MEUR/kt = EUR/kg]</t>
     </r>
   </si>
   <si>
-    <t>~TFM_INS</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>\I: Attribute</t>
-  </si>
-  <si>
-    <t>Commodity Set: Commodity Name</t>
-  </si>
-  <si>
-    <t>COM_TAXNET</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>Emission Cost [MEUR/kt]</t>
-  </si>
-  <si>
-    <t>INTERPOLATION OPTION</t>
+    <t>AllRegions</t>
   </si>
 </sst>
 </file>
@@ -722,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,7 +741,7 @@
     <row r="1" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -751,114 +751,113 @@
     <row r="3" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6" t="s">
+    </row>
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="8">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2030</v>
+      </c>
+      <c r="D8" s="15">
+        <v>9.9555555555555564E-2</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2023</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2.361111111111111E-2</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2040</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.19911111111111113</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2030</v>
-      </c>
-      <c r="D9" s="15">
-        <v>9.9555555555555564E-2</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2050</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.39822222222222226</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
-        <v>2040</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.19911111111111113</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
-        <v>2050</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.39822222222222226</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>8</v>
+      <c r="G11" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -868,10 +867,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FCB31E966C8774491137362174F34D4" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80b0e4a92f7da9a3cfe1b066d6726a7e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96cf5878-74d7-460f-a445-eb4c85d99a58" xmlns:ns3="833e474d-e424-4496-95f1-98e7780be11a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85bb924e207d6ced958957fe824a9c16" ns2:_="" ns3:_="">
-    <xsd:import namespace="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <xsd:import namespace="833e474d-e424-4496-95f1-98e7780be11a"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
+    <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -880,16 +893,8 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -897,7 +902,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="96cf5878-74d7-460f-a445-eb4c85d99a58" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3355bc15-3803-43c6-99c3-19930f83c70c" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -910,84 +915,14 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="833e474d-e424-4496-95f1-98e7780be11a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cd527c49-3208-4c55-a151-d8f89dfb23f9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="833e474d-e424-4496-95f1-98e7780be11a">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1090,41 +1025,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="96cf5878-74d7-460f-a445-eb4c85d99a58">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="833e474d-e424-4496-95f1-98e7780be11a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729FA71B-10B3-4B66-B70E-3B814B4FD1B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1134,16 +1038,16 @@
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5947ABA0-2920-4FEE-B3E7-BA56C5C15D80}"/>
 </file>